--- a/write.xlsx
+++ b/write.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="261">
   <si>
-    <t>INDEX</t>
+    <t>index</t>
   </si>
   <si>
     <t>P_TARGET_WINS</t>
@@ -862,7 +862,7 @@
         <v>9.0</v>
       </c>
       <c r="C2" t="n">
-        <v>58.45924217303518</v>
+        <v>-0.21658750693554674</v>
       </c>
     </row>
     <row r="3">
@@ -873,7 +873,7 @@
         <v>10.0</v>
       </c>
       <c r="C3" t="n">
-        <v>65.89272056446865</v>
+        <v>-0.17706723344355338</v>
       </c>
     </row>
     <row r="4">
@@ -884,7 +884,7 @@
         <v>14.0</v>
       </c>
       <c r="C4" t="n">
-        <v>72.28070349036253</v>
+        <v>-0.17959686556173032</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         <v>47.0</v>
       </c>
       <c r="C5" t="n">
-        <v>84.62484253635776</v>
+        <v>-0.05900518796826158</v>
       </c>
     </row>
     <row r="6">
@@ -906,7 +906,7 @@
         <v>60.0</v>
       </c>
       <c r="C6" t="n">
-        <v>98.72774301561284</v>
+        <v>-0.012047802199254457</v>
       </c>
     </row>
     <row r="7">
@@ -917,7 +917,7 @@
         <v>63.0</v>
       </c>
       <c r="C7" t="n">
-        <v>53.055974015612854</v>
+        <v>-0.16505313390048326</v>
       </c>
     </row>
     <row r="8">
@@ -928,7 +928,7 @@
         <v>74.0</v>
       </c>
       <c r="C8" t="n">
-        <v>71.3271681957626</v>
+        <v>0.035020019655981977</v>
       </c>
     </row>
     <row r="9">
@@ -939,7 +939,7 @@
         <v>83.0</v>
       </c>
       <c r="C9" t="n">
-        <v>70.46659998680411</v>
+        <v>-0.13550898746625473</v>
       </c>
     </row>
     <row r="10">
@@ -950,7 +950,7 @@
         <v>98.0</v>
       </c>
       <c r="C10" t="n">
-        <v>74.22028451465334</v>
+        <v>-0.13427833249219212</v>
       </c>
     </row>
     <row r="11">
@@ -961,7 +961,7 @@
         <v>120.0</v>
       </c>
       <c r="C11" t="n">
-        <v>70.21012615464568</v>
+        <v>-0.19890687414502167</v>
       </c>
     </row>
     <row r="12">
@@ -972,7 +972,7 @@
         <v>123.0</v>
       </c>
       <c r="C12" t="n">
-        <v>64.09936592773167</v>
+        <v>-0.3253912170093659</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>135.0</v>
       </c>
       <c r="C13" t="n">
-        <v>82.68175870660089</v>
+        <v>0.01829732596941837</v>
       </c>
     </row>
     <row r="14">
@@ -994,7 +994,7 @@
         <v>138.0</v>
       </c>
       <c r="C14" t="n">
-        <v>85.49065278955476</v>
+        <v>0.04616696079209968</v>
       </c>
     </row>
     <row r="15">
@@ -1005,7 +1005,7 @@
         <v>140.0</v>
       </c>
       <c r="C15" t="n">
-        <v>86.27188182428529</v>
+        <v>0.012065021679183956</v>
       </c>
     </row>
     <row r="16">
@@ -1016,7 +1016,7 @@
         <v>151.0</v>
       </c>
       <c r="C16" t="n">
-        <v>87.22990625804424</v>
+        <v>0.12405546264676741</v>
       </c>
     </row>
     <row r="17">
@@ -1027,7 +1027,7 @@
         <v>153.0</v>
       </c>
       <c r="C17" t="n">
-        <v>75.90886698411336</v>
+        <v>-0.09189825366280825</v>
       </c>
     </row>
     <row r="18">
@@ -1038,7 +1038,7 @@
         <v>171.0</v>
       </c>
       <c r="C18" t="n">
-        <v>69.48663255462495</v>
+        <v>-0.1991717888749765</v>
       </c>
     </row>
     <row r="19">
@@ -1049,7 +1049,7 @@
         <v>184.0</v>
       </c>
       <c r="C19" t="n">
-        <v>76.7227794863263</v>
+        <v>-0.11407899534099722</v>
       </c>
     </row>
     <row r="20">
@@ -1060,7 +1060,7 @@
         <v>193.0</v>
       </c>
       <c r="C20" t="n">
-        <v>70.80132345118918</v>
+        <v>-0.054693356624120296</v>
       </c>
     </row>
     <row r="21">
@@ -1071,7 +1071,7 @@
         <v>213.0</v>
       </c>
       <c r="C21" t="n">
-        <v>83.6754968466577</v>
+        <v>0.07760959559260043</v>
       </c>
     </row>
     <row r="22">
@@ -1082,7 +1082,7 @@
         <v>217.0</v>
       </c>
       <c r="C22" t="n">
-        <v>84.77118162952661</v>
+        <v>0.0634090324157916</v>
       </c>
     </row>
     <row r="23">
@@ -1093,7 +1093,7 @@
         <v>226.0</v>
       </c>
       <c r="C23" t="n">
-        <v>82.63878053063733</v>
+        <v>0.029053108082390797</v>
       </c>
     </row>
     <row r="24">
@@ -1104,7 +1104,7 @@
         <v>230.0</v>
       </c>
       <c r="C24" t="n">
-        <v>82.0828113790695</v>
+        <v>0.02017830802308266</v>
       </c>
     </row>
     <row r="25">
@@ -1115,7 +1115,7 @@
         <v>241.0</v>
       </c>
       <c r="C25" t="n">
-        <v>70.87744696186596</v>
+        <v>-0.23667342693991744</v>
       </c>
     </row>
     <row r="26">
@@ -1126,7 +1126,7 @@
         <v>291.0</v>
       </c>
       <c r="C26" t="n">
-        <v>79.32781742853265</v>
+        <v>-0.05941509945367535</v>
       </c>
     </row>
     <row r="27">
@@ -1137,7 +1137,7 @@
         <v>294.0</v>
       </c>
       <c r="C27" t="n">
-        <v>87.42956397138114</v>
+        <v>0.02160654448326184</v>
       </c>
     </row>
     <row r="28">
@@ -1148,7 +1148,7 @@
         <v>300.0</v>
       </c>
       <c r="C28" t="n">
-        <v>-68.61016492298364</v>
+        <v>-0.05688040750703294</v>
       </c>
     </row>
     <row r="29">
@@ -1159,7 +1159,7 @@
         <v>348.0</v>
       </c>
       <c r="C29" t="n">
-        <v>66.6399482520228</v>
+        <v>-0.16378082861501514</v>
       </c>
     </row>
     <row r="30">
@@ -1170,7 +1170,7 @@
         <v>350.0</v>
       </c>
       <c r="C30" t="n">
-        <v>81.24833523360456</v>
+        <v>0.023292551464915347</v>
       </c>
     </row>
     <row r="31">
@@ -1181,7 +1181,7 @@
         <v>357.0</v>
       </c>
       <c r="C31" t="n">
-        <v>65.8002980959239</v>
+        <v>-0.25009832326892056</v>
       </c>
     </row>
     <row r="32">
@@ -1192,7 +1192,7 @@
         <v>367.0</v>
       </c>
       <c r="C32" t="n">
-        <v>90.45888882491909</v>
+        <v>0.14953786083610646</v>
       </c>
     </row>
     <row r="33">
@@ -1203,7 +1203,7 @@
         <v>368.0</v>
       </c>
       <c r="C33" t="n">
-        <v>86.4526670806838</v>
+        <v>0.1271675025177808</v>
       </c>
     </row>
     <row r="34">
@@ -1214,7 +1214,7 @@
         <v>372.0</v>
       </c>
       <c r="C34" t="n">
-        <v>85.91167983696305</v>
+        <v>0.08717019041585967</v>
       </c>
     </row>
     <row r="35">
@@ -1225,7 +1225,7 @@
         <v>382.0</v>
       </c>
       <c r="C35" t="n">
-        <v>86.70779896677244</v>
+        <v>0.06107793619785298</v>
       </c>
     </row>
     <row r="36">
@@ -1236,7 +1236,7 @@
         <v>388.0</v>
       </c>
       <c r="C36" t="n">
-        <v>80.478987928673</v>
+        <v>-0.010639791807539156</v>
       </c>
     </row>
     <row r="37">
@@ -1247,7 +1247,7 @@
         <v>396.0</v>
       </c>
       <c r="C37" t="n">
-        <v>85.53467661814341</v>
+        <v>0.024084113385474018</v>
       </c>
     </row>
     <row r="38">
@@ -1258,7 +1258,7 @@
         <v>398.0</v>
       </c>
       <c r="C38" t="n">
-        <v>77.00237452408874</v>
+        <v>-0.11435571766467442</v>
       </c>
     </row>
     <row r="39">
@@ -1269,7 +1269,7 @@
         <v>403.0</v>
       </c>
       <c r="C39" t="n">
-        <v>91.18151417403257</v>
+        <v>0.13782136459303196</v>
       </c>
     </row>
     <row r="40">
@@ -1280,7 +1280,7 @@
         <v>407.0</v>
       </c>
       <c r="C40" t="n">
-        <v>72.2483215117131</v>
+        <v>-0.0307376695468873</v>
       </c>
     </row>
     <row r="41">
@@ -1291,7 +1291,7 @@
         <v>410.0</v>
       </c>
       <c r="C41" t="n">
-        <v>90.969443376448</v>
+        <v>0.13035079170945435</v>
       </c>
     </row>
     <row r="42">
@@ -1302,7 +1302,7 @@
         <v>412.0</v>
       </c>
       <c r="C42" t="n">
-        <v>82.1100033273367</v>
+        <v>-0.002099598069976269</v>
       </c>
     </row>
     <row r="43">
@@ -1313,7 +1313,7 @@
         <v>414.0</v>
       </c>
       <c r="C43" t="n">
-        <v>95.32974479684944</v>
+        <v>0.3266996730050795</v>
       </c>
     </row>
     <row r="44">
@@ -1324,7 +1324,7 @@
         <v>436.0</v>
       </c>
       <c r="C44" t="n">
-        <v>-111.63200292298365</v>
+        <v>0.030000258265793</v>
       </c>
     </row>
     <row r="45">
@@ -1335,7 +1335,7 @@
         <v>440.0</v>
       </c>
       <c r="C45" t="n">
-        <v>111.92519098782705</v>
+        <v>0.268051411015036</v>
       </c>
     </row>
     <row r="46">
@@ -1346,7 +1346,7 @@
         <v>476.0</v>
       </c>
       <c r="C46" t="n">
-        <v>90.43048803015483</v>
+        <v>0.16987298315354402</v>
       </c>
     </row>
     <row r="47">
@@ -1357,7 +1357,7 @@
         <v>479.0</v>
       </c>
       <c r="C47" t="n">
-        <v>75.95454324364195</v>
+        <v>0.18312796391819572</v>
       </c>
     </row>
     <row r="48">
@@ -1368,7 +1368,7 @@
         <v>481.0</v>
       </c>
       <c r="C48" t="n">
-        <v>82.82052870537072</v>
+        <v>0.17937828464887245</v>
       </c>
     </row>
     <row r="49">
@@ -1379,7 +1379,7 @@
         <v>501.0</v>
       </c>
       <c r="C49" t="n">
-        <v>70.42500186972504</v>
+        <v>-0.11554857689240208</v>
       </c>
     </row>
     <row r="50">
@@ -1390,7 +1390,7 @@
         <v>503.0</v>
       </c>
       <c r="C50" t="n">
-        <v>65.39004529703229</v>
+        <v>-0.1841495279017989</v>
       </c>
     </row>
     <row r="51">
@@ -1401,7 +1401,7 @@
         <v>506.0</v>
       </c>
       <c r="C51" t="n">
-        <v>75.11296282034739</v>
+        <v>-0.04084270545435964</v>
       </c>
     </row>
     <row r="52">
@@ -1412,7 +1412,7 @@
         <v>519.0</v>
       </c>
       <c r="C52" t="n">
-        <v>72.6638349762656</v>
+        <v>-0.1295203449031348</v>
       </c>
     </row>
     <row r="53">
@@ -1423,7 +1423,7 @@
         <v>522.0</v>
       </c>
       <c r="C53" t="n">
-        <v>82.24129746505821</v>
+        <v>0.03172254740697203</v>
       </c>
     </row>
     <row r="54">
@@ -1434,7 +1434,7 @@
         <v>550.0</v>
       </c>
       <c r="C54" t="n">
-        <v>72.73395786155272</v>
+        <v>-0.18618900917446507</v>
       </c>
     </row>
     <row r="55">
@@ -1445,7 +1445,7 @@
         <v>554.0</v>
       </c>
       <c r="C55" t="n">
-        <v>74.60000295308278</v>
+        <v>-0.04054252927880404</v>
       </c>
     </row>
     <row r="56">
@@ -1456,7 +1456,7 @@
         <v>566.0</v>
       </c>
       <c r="C56" t="n">
-        <v>68.18824296613195</v>
+        <v>-0.3347663419854431</v>
       </c>
     </row>
     <row r="57">
@@ -1467,7 +1467,7 @@
         <v>578.0</v>
       </c>
       <c r="C57" t="n">
-        <v>77.70484189007067</v>
+        <v>0.054473866462964315</v>
       </c>
     </row>
     <row r="58">
@@ -1478,7 +1478,7 @@
         <v>596.0</v>
       </c>
       <c r="C58" t="n">
-        <v>92.41561950740189</v>
+        <v>0.1409131415250545</v>
       </c>
     </row>
     <row r="59">
@@ -1489,7 +1489,7 @@
         <v>599.0</v>
       </c>
       <c r="C59" t="n">
-        <v>78.85843788211554</v>
+        <v>-0.059876540201450335</v>
       </c>
     </row>
     <row r="60">
@@ -1500,7 +1500,7 @@
         <v>605.0</v>
       </c>
       <c r="C60" t="n">
-        <v>68.80291210145415</v>
+        <v>-0.09869464434457279</v>
       </c>
     </row>
     <row r="61">
@@ -1511,7 +1511,7 @@
         <v>607.0</v>
       </c>
       <c r="C61" t="n">
-        <v>86.06551477693071</v>
+        <v>-0.022985288306228036</v>
       </c>
     </row>
     <row r="62">
@@ -1522,7 +1522,7 @@
         <v>614.0</v>
       </c>
       <c r="C62" t="n">
-        <v>91.0011449783971</v>
+        <v>0.09162393463274536</v>
       </c>
     </row>
     <row r="63">
@@ -1533,7 +1533,7 @@
         <v>644.0</v>
       </c>
       <c r="C63" t="n">
-        <v>83.56437158173101</v>
+        <v>0.05001284354728184</v>
       </c>
     </row>
     <row r="64">
@@ -1544,7 +1544,7 @@
         <v>692.0</v>
       </c>
       <c r="C64" t="n">
-        <v>87.99013023327083</v>
+        <v>0.12096047146555267</v>
       </c>
     </row>
     <row r="65">
@@ -1555,7 +1555,7 @@
         <v>699.0</v>
       </c>
       <c r="C65" t="n">
-        <v>83.28167927978724</v>
+        <v>-0.008774793394316555</v>
       </c>
     </row>
     <row r="66">
@@ -1566,7 +1566,7 @@
         <v>700.0</v>
       </c>
       <c r="C66" t="n">
-        <v>83.28957745333418</v>
+        <v>0.028429752797133945</v>
       </c>
     </row>
     <row r="67">
@@ -1577,7 +1577,7 @@
         <v>716.0</v>
       </c>
       <c r="C67" t="n">
-        <v>104.4858897207742</v>
+        <v>0.18976505395378196</v>
       </c>
     </row>
     <row r="68">
@@ -1588,7 +1588,7 @@
         <v>721.0</v>
       </c>
       <c r="C68" t="n">
-        <v>64.02918065685506</v>
+        <v>-0.16783845162810673</v>
       </c>
     </row>
     <row r="69">
@@ -1599,7 +1599,7 @@
         <v>722.0</v>
       </c>
       <c r="C69" t="n">
-        <v>71.06008361868581</v>
+        <v>-0.06285775818570062</v>
       </c>
     </row>
     <row r="70">
@@ -1610,7 +1610,7 @@
         <v>729.0</v>
       </c>
       <c r="C70" t="n">
-        <v>88.9708588801179</v>
+        <v>-0.0028548630849374174</v>
       </c>
     </row>
     <row r="71">
@@ -1621,7 +1621,7 @@
         <v>731.0</v>
       </c>
       <c r="C71" t="n">
-        <v>99.41737236007182</v>
+        <v>0.11560692260552327</v>
       </c>
     </row>
     <row r="72">
@@ -1632,7 +1632,7 @@
         <v>746.0</v>
       </c>
       <c r="C72" t="n">
-        <v>90.31457494530872</v>
+        <v>0.10191034894914767</v>
       </c>
     </row>
     <row r="73">
@@ -1643,7 +1643,7 @@
         <v>763.0</v>
       </c>
       <c r="C73" t="n">
-        <v>72.49850015464563</v>
+        <v>-0.08996998921606203</v>
       </c>
     </row>
     <row r="74">
@@ -1654,7 +1654,7 @@
         <v>774.0</v>
       </c>
       <c r="C74" t="n">
-        <v>80.85030214276823</v>
+        <v>-0.027642652407227963</v>
       </c>
     </row>
     <row r="75">
@@ -1665,7 +1665,7 @@
         <v>776.0</v>
       </c>
       <c r="C75" t="n">
-        <v>92.42639517097899</v>
+        <v>0.14981832690640476</v>
       </c>
     </row>
     <row r="76">
@@ -1676,7 +1676,7 @@
         <v>788.0</v>
       </c>
       <c r="C76" t="n">
-        <v>70.1891536602037</v>
+        <v>-0.11734131386148103</v>
       </c>
     </row>
     <row r="77">
@@ -1687,7 +1687,7 @@
         <v>789.0</v>
       </c>
       <c r="C77" t="n">
-        <v>78.0019017170909</v>
+        <v>-0.08162481708590184</v>
       </c>
     </row>
     <row r="78">
@@ -1698,7 +1698,7 @@
         <v>792.0</v>
       </c>
       <c r="C78" t="n">
-        <v>88.60307898638251</v>
+        <v>0.1510713491829621</v>
       </c>
     </row>
     <row r="79">
@@ -1709,7 +1709,7 @@
         <v>811.0</v>
       </c>
       <c r="C79" t="n">
-        <v>81.460353865239</v>
+        <v>-7.195324208283255E-5</v>
       </c>
     </row>
     <row r="80">
@@ -1720,7 +1720,7 @@
         <v>835.0</v>
       </c>
       <c r="C80" t="n">
-        <v>77.35119578845718</v>
+        <v>-0.20142041618612533</v>
       </c>
     </row>
     <row r="81">
@@ -1731,7 +1731,7 @@
         <v>837.0</v>
       </c>
       <c r="C81" t="n">
-        <v>81.633016749154</v>
+        <v>-0.01738009707345041</v>
       </c>
     </row>
     <row r="82">
@@ -1742,7 +1742,7 @@
         <v>861.0</v>
       </c>
       <c r="C82" t="n">
-        <v>80.91611594156899</v>
+        <v>-0.0117685336448414</v>
       </c>
     </row>
     <row r="83">
@@ -1753,7 +1753,7 @@
         <v>862.0</v>
       </c>
       <c r="C83" t="n">
-        <v>83.4402977548865</v>
+        <v>0.040443886756898584</v>
       </c>
     </row>
     <row r="84">
@@ -1764,7 +1764,7 @@
         <v>863.0</v>
       </c>
       <c r="C84" t="n">
-        <v>92.31068210968348</v>
+        <v>0.13453919651636767</v>
       </c>
     </row>
     <row r="85">
@@ -1775,7 +1775,7 @@
         <v>871.0</v>
       </c>
       <c r="C85" t="n">
-        <v>72.20522953988244</v>
+        <v>-0.19438766625349221</v>
       </c>
     </row>
     <row r="86">
@@ -1786,7 +1786,7 @@
         <v>879.0</v>
       </c>
       <c r="C86" t="n">
-        <v>87.18915438628272</v>
+        <v>0.09430644762747326</v>
       </c>
     </row>
     <row r="87">
@@ -1797,7 +1797,7 @@
         <v>887.0</v>
       </c>
       <c r="C87" t="n">
-        <v>80.03722302084455</v>
+        <v>-0.04675668561662863</v>
       </c>
     </row>
     <row r="88">
@@ -1808,7 +1808,7 @@
         <v>892.0</v>
       </c>
       <c r="C88" t="n">
-        <v>85.64609317922766</v>
+        <v>0.07016886738062632</v>
       </c>
     </row>
     <row r="89">
@@ -1819,7 +1819,7 @@
         <v>904.0</v>
       </c>
       <c r="C89" t="n">
-        <v>84.80702669559663</v>
+        <v>0.23479585473706888</v>
       </c>
     </row>
     <row r="90">
@@ -1830,7 +1830,7 @@
         <v>909.0</v>
       </c>
       <c r="C90" t="n">
-        <v>97.56010101958057</v>
+        <v>0.3233543654255858</v>
       </c>
     </row>
     <row r="91">
@@ -1841,7 +1841,7 @@
         <v>925.0</v>
       </c>
       <c r="C91" t="n">
-        <v>90.92482801343166</v>
+        <v>0.13308381618941745</v>
       </c>
     </row>
     <row r="92">
@@ -1852,7 +1852,7 @@
         <v>940.0</v>
       </c>
       <c r="C92" t="n">
-        <v>72.09289138242372</v>
+        <v>0.01755991045355392</v>
       </c>
     </row>
     <row r="93">
@@ -1863,7 +1863,7 @@
         <v>951.0</v>
       </c>
       <c r="C93" t="n">
-        <v>-223.80213846721327</v>
+        <v>-0.04352183986800291</v>
       </c>
     </row>
     <row r="94">
@@ -1874,7 +1874,7 @@
         <v>976.0</v>
       </c>
       <c r="C94" t="n">
-        <v>62.08382122987313</v>
+        <v>-0.13773845276801425</v>
       </c>
     </row>
     <row r="95">
@@ -1885,7 +1885,7 @@
         <v>981.0</v>
       </c>
       <c r="C95" t="n">
-        <v>87.34832605456776</v>
+        <v>0.03359700063049188</v>
       </c>
     </row>
     <row r="96">
@@ -1896,7 +1896,7 @@
         <v>983.0</v>
       </c>
       <c r="C96" t="n">
-        <v>92.81540194030222</v>
+        <v>-0.005373440037056754</v>
       </c>
     </row>
     <row r="97">
@@ -1907,7 +1907,7 @@
         <v>984.0</v>
       </c>
       <c r="C97" t="n">
-        <v>93.54378851256743</v>
+        <v>0.025026796553537123</v>
       </c>
     </row>
     <row r="98">
@@ -1918,7 +1918,7 @@
         <v>989.0</v>
       </c>
       <c r="C98" t="n">
-        <v>96.4219625551408</v>
+        <v>0.14705306610272306</v>
       </c>
     </row>
     <row r="99">
@@ -1929,7 +1929,7 @@
         <v>995.0</v>
       </c>
       <c r="C99" t="n">
-        <v>100.13944081250146</v>
+        <v>0.23272332547231994</v>
       </c>
     </row>
     <row r="100">
@@ -1940,7 +1940,7 @@
         <v>1000.0</v>
       </c>
       <c r="C100" t="n">
-        <v>88.16566243768241</v>
+        <v>0.10241172960381971</v>
       </c>
     </row>
     <row r="101">
@@ -1951,7 +1951,7 @@
         <v>1001.0</v>
       </c>
       <c r="C101" t="n">
-        <v>90.92741002674744</v>
+        <v>0.10406183049553007</v>
       </c>
     </row>
     <row r="102">
@@ -1962,7 +1962,7 @@
         <v>1007.0</v>
       </c>
       <c r="C102" t="n">
-        <v>78.69539668446475</v>
+        <v>-0.07841565575494899</v>
       </c>
     </row>
     <row r="103">
@@ -1973,7 +1973,7 @@
         <v>1016.0</v>
       </c>
       <c r="C103" t="n">
-        <v>71.77745312066286</v>
+        <v>-0.24615432489508826</v>
       </c>
     </row>
     <row r="104">
@@ -1984,7 +1984,7 @@
         <v>1027.0</v>
       </c>
       <c r="C104" t="n">
-        <v>83.32383524849918</v>
+        <v>0.07827207507115835</v>
       </c>
     </row>
     <row r="105">
@@ -1995,7 +1995,7 @@
         <v>1033.0</v>
       </c>
       <c r="C105" t="n">
-        <v>88.35262463948514</v>
+        <v>0.09009053029164917</v>
       </c>
     </row>
     <row r="106">
@@ -2006,7 +2006,7 @@
         <v>1070.0</v>
       </c>
       <c r="C106" t="n">
-        <v>72.8978485913094</v>
+        <v>-0.1305847753846472</v>
       </c>
     </row>
     <row r="107">
@@ -2017,7 +2017,7 @@
         <v>1081.0</v>
       </c>
       <c r="C107" t="n">
-        <v>48.34872801561284</v>
+        <v>-0.1534692976416619</v>
       </c>
     </row>
     <row r="108">
@@ -2028,7 +2028,7 @@
         <v>1084.0</v>
       </c>
       <c r="C108" t="n">
-        <v>34.65012207701637</v>
+        <v>-0.16645549674995025</v>
       </c>
     </row>
     <row r="109">
@@ -2039,7 +2039,7 @@
         <v>1098.0</v>
       </c>
       <c r="C109" t="n">
-        <v>71.77003733993634</v>
+        <v>-0.11281569077938011</v>
       </c>
     </row>
     <row r="110">
@@ -2050,7 +2050,7 @@
         <v>1150.0</v>
       </c>
       <c r="C110" t="n">
-        <v>89.88062014908228</v>
+        <v>0.05605579498210622</v>
       </c>
     </row>
     <row r="111">
@@ -2061,7 +2061,7 @@
         <v>1160.0</v>
       </c>
       <c r="C111" t="n">
-        <v>37.01469998341786</v>
+        <v>-0.32761379573851473</v>
       </c>
     </row>
     <row r="112">
@@ -2072,7 +2072,7 @@
         <v>1169.0</v>
       </c>
       <c r="C112" t="n">
-        <v>90.45395251671168</v>
+        <v>0.20354799661989037</v>
       </c>
     </row>
     <row r="113">
@@ -2083,7 +2083,7 @@
         <v>1172.0</v>
       </c>
       <c r="C113" t="n">
-        <v>90.71661781252149</v>
+        <v>0.17183917605540105</v>
       </c>
     </row>
     <row r="114">
@@ -2094,7 +2094,7 @@
         <v>1174.0</v>
       </c>
       <c r="C114" t="n">
-        <v>99.75961410004409</v>
+        <v>0.35384679184665013</v>
       </c>
     </row>
     <row r="115">
@@ -2105,7 +2105,7 @@
         <v>1176.0</v>
       </c>
       <c r="C115" t="n">
-        <v>92.40716278140872</v>
+        <v>0.27925649995046187</v>
       </c>
     </row>
     <row r="116">
@@ -2116,7 +2116,7 @@
         <v>1178.0</v>
       </c>
       <c r="C116" t="n">
-        <v>78.1571785813436</v>
+        <v>0.03189415046721815</v>
       </c>
     </row>
     <row r="117">
@@ -2127,7 +2127,7 @@
         <v>1184.0</v>
       </c>
       <c r="C117" t="n">
-        <v>75.45568040039117</v>
+        <v>-0.06826494011133821</v>
       </c>
     </row>
     <row r="118">
@@ -2138,7 +2138,7 @@
         <v>1193.0</v>
       </c>
       <c r="C118" t="n">
-        <v>87.19931664289247</v>
+        <v>0.07398086991824182</v>
       </c>
     </row>
     <row r="119">
@@ -2149,7 +2149,7 @@
         <v>1196.0</v>
       </c>
       <c r="C119" t="n">
-        <v>81.27319264237148</v>
+        <v>-0.0970240067145065</v>
       </c>
     </row>
     <row r="120">
@@ -2160,7 +2160,7 @@
         <v>1199.0</v>
       </c>
       <c r="C120" t="n">
-        <v>67.9765427939831</v>
+        <v>-0.20663933243078947</v>
       </c>
     </row>
     <row r="121">
@@ -2171,7 +2171,7 @@
         <v>1207.0</v>
       </c>
       <c r="C121" t="n">
-        <v>61.82592980513581</v>
+        <v>0.013978903405751114</v>
       </c>
     </row>
     <row r="122">
@@ -2182,7 +2182,7 @@
         <v>1218.0</v>
       </c>
       <c r="C122" t="n">
-        <v>96.30411420504387</v>
+        <v>0.19978364038106208</v>
       </c>
     </row>
     <row r="123">
@@ -2193,7 +2193,7 @@
         <v>1223.0</v>
       </c>
       <c r="C123" t="n">
-        <v>69.88169955587313</v>
+        <v>-0.06756315432754735</v>
       </c>
     </row>
     <row r="124">
@@ -2204,7 +2204,7 @@
         <v>1226.0</v>
       </c>
       <c r="C124" t="n">
-        <v>69.35824175763122</v>
+        <v>-0.05139830142861172</v>
       </c>
     </row>
     <row r="125">
@@ -2215,7 +2215,7 @@
         <v>1227.0</v>
       </c>
       <c r="C125" t="n">
-        <v>73.0020442613638</v>
+        <v>-0.13581763975436578</v>
       </c>
     </row>
     <row r="126">
@@ -2226,7 +2226,7 @@
         <v>1229.0</v>
       </c>
       <c r="C126" t="n">
-        <v>71.06610665710136</v>
+        <v>-0.1656317190358997</v>
       </c>
     </row>
     <row r="127">
@@ -2237,7 +2237,7 @@
         <v>1241.0</v>
       </c>
       <c r="C127" t="n">
-        <v>82.93790026923446</v>
+        <v>0.0897534759306371</v>
       </c>
     </row>
     <row r="128">
@@ -2248,7 +2248,7 @@
         <v>1244.0</v>
       </c>
       <c r="C128" t="n">
-        <v>87.78356956026079</v>
+        <v>0.09739427908463902</v>
       </c>
     </row>
     <row r="129">
@@ -2259,7 +2259,7 @@
         <v>1246.0</v>
       </c>
       <c r="C129" t="n">
-        <v>75.39056698667545</v>
+        <v>-0.07435964598436624</v>
       </c>
     </row>
     <row r="130">
@@ -2270,7 +2270,7 @@
         <v>1248.0</v>
       </c>
       <c r="C130" t="n">
-        <v>90.29065453298983</v>
+        <v>0.1916554490064089</v>
       </c>
     </row>
     <row r="131">
@@ -2281,7 +2281,7 @@
         <v>1249.0</v>
       </c>
       <c r="C131" t="n">
-        <v>87.88211921930733</v>
+        <v>0.10218234934279584</v>
       </c>
     </row>
     <row r="132">
@@ -2292,7 +2292,7 @@
         <v>1253.0</v>
       </c>
       <c r="C132" t="n">
-        <v>81.09397368083742</v>
+        <v>0.00580173549235892</v>
       </c>
     </row>
     <row r="133">
@@ -2303,7 +2303,7 @@
         <v>1261.0</v>
       </c>
       <c r="C133" t="n">
-        <v>81.10593953298985</v>
+        <v>0.010367168256601049</v>
       </c>
     </row>
     <row r="134">
@@ -2314,7 +2314,7 @@
         <v>1305.0</v>
       </c>
       <c r="C134" t="n">
-        <v>73.46556502686363</v>
+        <v>-0.21613888722347468</v>
       </c>
     </row>
     <row r="135">
@@ -2325,7 +2325,7 @@
         <v>1314.0</v>
       </c>
       <c r="C135" t="n">
-        <v>85.96570923051843</v>
+        <v>-0.040066429123214564</v>
       </c>
     </row>
     <row r="136">
@@ -2336,7 +2336,7 @@
         <v>1323.0</v>
       </c>
       <c r="C136" t="n">
-        <v>91.07614264463109</v>
+        <v>0.1616835837114996</v>
       </c>
     </row>
     <row r="137">
@@ -2347,7 +2347,7 @@
         <v>1328.0</v>
       </c>
       <c r="C137" t="n">
-        <v>33.63068101561286</v>
+        <v>-0.040779016228791654</v>
       </c>
     </row>
     <row r="138">
@@ -2358,7 +2358,7 @@
         <v>1353.0</v>
       </c>
       <c r="C138" t="n">
-        <v>74.98579040801606</v>
+        <v>-0.08504234166603619</v>
       </c>
     </row>
     <row r="139">
@@ -2369,7 +2369,7 @@
         <v>1363.0</v>
       </c>
       <c r="C139" t="n">
-        <v>74.4194212119004</v>
+        <v>-0.08806676556234343</v>
       </c>
     </row>
     <row r="140">
@@ -2380,7 +2380,7 @@
         <v>1371.0</v>
       </c>
       <c r="C140" t="n">
-        <v>94.47291408681606</v>
+        <v>0.35163011019351414</v>
       </c>
     </row>
     <row r="141">
@@ -2391,7 +2391,7 @@
         <v>1372.0</v>
       </c>
       <c r="C141" t="n">
-        <v>79.62820532874488</v>
+        <v>-0.04577720648448813</v>
       </c>
     </row>
     <row r="142">
@@ -2402,7 +2402,7 @@
         <v>1389.0</v>
       </c>
       <c r="C142" t="n">
-        <v>55.857166687081765</v>
+        <v>-0.16575434208635964</v>
       </c>
     </row>
     <row r="143">
@@ -2413,7 +2413,7 @@
         <v>1393.0</v>
       </c>
       <c r="C143" t="n">
-        <v>78.51282929642261</v>
+        <v>-0.07363814558935143</v>
       </c>
     </row>
     <row r="144">
@@ -2424,7 +2424,7 @@
         <v>1421.0</v>
       </c>
       <c r="C144" t="n">
-        <v>93.52338111131098</v>
+        <v>0.14463440153476884</v>
       </c>
     </row>
     <row r="145">
@@ -2435,7 +2435,7 @@
         <v>1431.0</v>
       </c>
       <c r="C145" t="n">
-        <v>68.63738787324985</v>
+        <v>-0.35402475738618816</v>
       </c>
     </row>
     <row r="146">
@@ -2446,7 +2446,7 @@
         <v>1437.0</v>
       </c>
       <c r="C146" t="n">
-        <v>76.20188535062306</v>
+        <v>-0.0811326735719032</v>
       </c>
     </row>
     <row r="147">
@@ -2457,7 +2457,7 @@
         <v>1442.0</v>
       </c>
       <c r="C147" t="n">
-        <v>74.02816146224467</v>
+        <v>-0.16024255733908144</v>
       </c>
     </row>
     <row r="148">
@@ -2468,7 +2468,7 @@
         <v>1450.0</v>
       </c>
       <c r="C148" t="n">
-        <v>75.82530178700632</v>
+        <v>-0.18589401212431833</v>
       </c>
     </row>
     <row r="149">
@@ -2479,7 +2479,7 @@
         <v>1463.0</v>
       </c>
       <c r="C149" t="n">
-        <v>81.98447682581251</v>
+        <v>0.009293082721220636</v>
       </c>
     </row>
     <row r="150">
@@ -2490,7 +2490,7 @@
         <v>1464.0</v>
       </c>
       <c r="C150" t="n">
-        <v>79.99606344183633</v>
+        <v>-0.027997805494440017</v>
       </c>
     </row>
     <row r="151">
@@ -2501,7 +2501,7 @@
         <v>1470.0</v>
       </c>
       <c r="C151" t="n">
-        <v>83.24026157559676</v>
+        <v>0.1117232708247558</v>
       </c>
     </row>
     <row r="152">
@@ -2512,7 +2512,7 @@
         <v>1471.0</v>
       </c>
       <c r="C152" t="n">
-        <v>81.207921941647</v>
+        <v>0.03691589683390569</v>
       </c>
     </row>
     <row r="153">
@@ -2523,7 +2523,7 @@
         <v>1484.0</v>
       </c>
       <c r="C153" t="n">
-        <v>79.09994680510555</v>
+        <v>0.10907269528663788</v>
       </c>
     </row>
     <row r="154">
@@ -2534,7 +2534,7 @@
         <v>1495.0</v>
       </c>
       <c r="C154" t="n">
-        <v>10.049343061403473</v>
+        <v>-0.046677822669046284</v>
       </c>
     </row>
     <row r="155">
@@ -2545,7 +2545,7 @@
         <v>1507.0</v>
       </c>
       <c r="C155" t="n">
-        <v>61.86702530393951</v>
+        <v>-0.23387302737595467</v>
       </c>
     </row>
     <row r="156">
@@ -2556,7 +2556,7 @@
         <v>1514.0</v>
       </c>
       <c r="C156" t="n">
-        <v>78.16417724517969</v>
+        <v>-0.011507665919605115</v>
       </c>
     </row>
     <row r="157">
@@ -2567,7 +2567,7 @@
         <v>1526.0</v>
       </c>
       <c r="C157" t="n">
-        <v>67.32589654404092</v>
+        <v>-0.23388696871112383</v>
       </c>
     </row>
     <row r="158">
@@ -2578,7 +2578,7 @@
         <v>1549.0</v>
       </c>
       <c r="C158" t="n">
-        <v>92.27036046727304</v>
+        <v>0.05612471361036486</v>
       </c>
     </row>
     <row r="159">
@@ -2589,7 +2589,7 @@
         <v>1552.0</v>
       </c>
       <c r="C159" t="n">
-        <v>39.31839907701637</v>
+        <v>-0.16306208829719865</v>
       </c>
     </row>
     <row r="160">
@@ -2600,7 +2600,7 @@
         <v>1556.0</v>
       </c>
       <c r="C160" t="n">
-        <v>84.37077638085597</v>
+        <v>0.11111427921953648</v>
       </c>
     </row>
     <row r="161">
@@ -2611,7 +2611,7 @@
         <v>1564.0</v>
       </c>
       <c r="C161" t="n">
-        <v>74.436229749154</v>
+        <v>-0.02575468736974819</v>
       </c>
     </row>
     <row r="162">
@@ -2622,7 +2622,7 @@
         <v>1585.0</v>
       </c>
       <c r="C162" t="n">
-        <v>105.51311241436238</v>
+        <v>0.2593374671889505</v>
       </c>
     </row>
     <row r="163">
@@ -2633,7 +2633,7 @@
         <v>1586.0</v>
       </c>
       <c r="C163" t="n">
-        <v>112.6905518071826</v>
+        <v>0.30887566039375214</v>
       </c>
     </row>
     <row r="164">
@@ -2644,7 +2644,7 @@
         <v>1590.0</v>
       </c>
       <c r="C164" t="n">
-        <v>95.97300969550056</v>
+        <v>0.2773271985418519</v>
       </c>
     </row>
     <row r="165">
@@ -2655,7 +2655,7 @@
         <v>1591.0</v>
       </c>
       <c r="C165" t="n">
-        <v>106.53803214067835</v>
+        <v>0.24808554134267807</v>
       </c>
     </row>
     <row r="166">
@@ -2666,7 +2666,7 @@
         <v>1592.0</v>
       </c>
       <c r="C166" t="n">
-        <v>101.00129458652624</v>
+        <v>0.2326280059239977</v>
       </c>
     </row>
     <row r="167">
@@ -2677,7 +2677,7 @@
         <v>1603.0</v>
       </c>
       <c r="C167" t="n">
-        <v>98.66693174946386</v>
+        <v>0.27846913161547937</v>
       </c>
     </row>
     <row r="168">
@@ -2688,7 +2688,7 @@
         <v>1612.0</v>
       </c>
       <c r="C168" t="n">
-        <v>86.24157157013518</v>
+        <v>0.09117180302517733</v>
       </c>
     </row>
     <row r="169">
@@ -2699,7 +2699,7 @@
         <v>1634.0</v>
       </c>
       <c r="C169" t="n">
-        <v>85.4771011740326</v>
+        <v>0.11219659824200737</v>
       </c>
     </row>
     <row r="170">
@@ -2710,7 +2710,7 @@
         <v>1645.0</v>
       </c>
       <c r="C170" t="n">
-        <v>70.58607941134849</v>
+        <v>-0.15573867366485883</v>
       </c>
     </row>
     <row r="171">
@@ -2721,7 +2721,7 @@
         <v>1647.0</v>
       </c>
       <c r="C171" t="n">
-        <v>79.49375713255714</v>
+        <v>-0.025189924441518595</v>
       </c>
     </row>
     <row r="172">
@@ -2732,7 +2732,7 @@
         <v>1673.0</v>
       </c>
       <c r="C172" t="n">
-        <v>103.05908794983054</v>
+        <v>0.10612470841406688</v>
       </c>
     </row>
     <row r="173">
@@ -2743,7 +2743,7 @@
         <v>1674.0</v>
       </c>
       <c r="C173" t="n">
-        <v>97.15992351042019</v>
+        <v>0.14115713585671102</v>
       </c>
     </row>
     <row r="174">
@@ -2754,7 +2754,7 @@
         <v>1687.0</v>
       </c>
       <c r="C174" t="n">
-        <v>80.49151172335984</v>
+        <v>-0.014330146882409973</v>
       </c>
     </row>
     <row r="175">
@@ -2765,7 +2765,7 @@
         <v>1688.0</v>
       </c>
       <c r="C175" t="n">
-        <v>93.36214987112285</v>
+        <v>0.19314534298327718</v>
       </c>
     </row>
     <row r="176">
@@ -2776,7 +2776,7 @@
         <v>1700.0</v>
       </c>
       <c r="C176" t="n">
-        <v>77.78420862853264</v>
+        <v>-0.08174481432725014</v>
       </c>
     </row>
     <row r="177">
@@ -2787,7 +2787,7 @@
         <v>1708.0</v>
       </c>
       <c r="C177" t="n">
-        <v>79.266775967273</v>
+        <v>-0.044466886435592504</v>
       </c>
     </row>
     <row r="178">
@@ -2798,7 +2798,7 @@
         <v>1713.0</v>
       </c>
       <c r="C178" t="n">
-        <v>83.00641419183627</v>
+        <v>0.0546609415793343</v>
       </c>
     </row>
     <row r="179">
@@ -2809,7 +2809,7 @@
         <v>1717.0</v>
       </c>
       <c r="C179" t="n">
-        <v>69.42261627857074</v>
+        <v>-0.28690130846305273</v>
       </c>
     </row>
     <row r="180">
@@ -2820,7 +2820,7 @@
         <v>1721.0</v>
       </c>
       <c r="C180" t="n">
-        <v>78.89559505618737</v>
+        <v>-0.1309843313147572</v>
       </c>
     </row>
     <row r="181">
@@ -2831,7 +2831,7 @@
         <v>1730.0</v>
       </c>
       <c r="C181" t="n">
-        <v>82.07773872900799</v>
+        <v>-0.03691434748010947</v>
       </c>
     </row>
     <row r="182">
@@ -2842,7 +2842,7 @@
         <v>1737.0</v>
       </c>
       <c r="C182" t="n">
-        <v>100.38836722363266</v>
+        <v>0.1493186224817718</v>
       </c>
     </row>
     <row r="183">
@@ -2853,7 +2853,7 @@
         <v>1748.0</v>
       </c>
       <c r="C183" t="n">
-        <v>88.74222634930055</v>
+        <v>0.06478116915739901</v>
       </c>
     </row>
     <row r="184">
@@ -2864,7 +2864,7 @@
         <v>1749.0</v>
       </c>
       <c r="C184" t="n">
-        <v>87.92283175432152</v>
+        <v>0.1422886368185069</v>
       </c>
     </row>
     <row r="185">
@@ -2875,7 +2875,7 @@
         <v>1763.0</v>
       </c>
       <c r="C185" t="n">
-        <v>88.3019493149481</v>
+        <v>0.030591202379901955</v>
       </c>
     </row>
     <row r="186">
@@ -2886,7 +2886,7 @@
         <v>1768.0</v>
       </c>
       <c r="C186" t="n">
-        <v>-139.09303357293027</v>
+        <v>-0.07338375302785123</v>
       </c>
     </row>
     <row r="187">
@@ -2897,7 +2897,7 @@
         <v>1778.0</v>
       </c>
       <c r="C187" t="n">
-        <v>85.12855175493598</v>
+        <v>0.17008429003966355</v>
       </c>
     </row>
     <row r="188">
@@ -2908,7 +2908,7 @@
         <v>1780.0</v>
       </c>
       <c r="C188" t="n">
-        <v>65.61388676288428</v>
+        <v>0.08347289035355457</v>
       </c>
     </row>
     <row r="189">
@@ -2919,7 +2919,7 @@
         <v>1782.0</v>
       </c>
       <c r="C189" t="n">
-        <v>4.116488077016378</v>
+        <v>-0.1398744479599736</v>
       </c>
     </row>
     <row r="190">
@@ -2930,7 +2930,7 @@
         <v>1784.0</v>
       </c>
       <c r="C190" t="n">
-        <v>28.410487077016377</v>
+        <v>-0.19823901440801628</v>
       </c>
     </row>
     <row r="191">
@@ -2941,7 +2941,7 @@
         <v>1794.0</v>
       </c>
       <c r="C191" t="n">
-        <v>91.64363497663786</v>
+        <v>0.2152142951461543</v>
       </c>
     </row>
     <row r="192">
@@ -2952,7 +2952,7 @@
         <v>1803.0</v>
       </c>
       <c r="C192" t="n">
-        <v>61.44777519614737</v>
+        <v>-0.23000174560781494</v>
       </c>
     </row>
     <row r="193">
@@ -2963,7 +2963,7 @@
         <v>1804.0</v>
       </c>
       <c r="C193" t="n">
-        <v>85.95045530647846</v>
+        <v>0.03401033760980243</v>
       </c>
     </row>
     <row r="194">
@@ -2974,7 +2974,7 @@
         <v>1819.0</v>
       </c>
       <c r="C194" t="n">
-        <v>65.80770115435949</v>
+        <v>-0.10009313659587299</v>
       </c>
     </row>
     <row r="195">
@@ -2985,7 +2985,7 @@
         <v>1832.0</v>
       </c>
       <c r="C195" t="n">
-        <v>70.61563368083739</v>
+        <v>-0.1763673453516233</v>
       </c>
     </row>
     <row r="196">
@@ -2996,7 +2996,7 @@
         <v>1833.0</v>
       </c>
       <c r="C196" t="n">
-        <v>68.76287939195555</v>
+        <v>-0.219787363059903</v>
       </c>
     </row>
     <row r="197">
@@ -3007,7 +3007,7 @@
         <v>1844.0</v>
       </c>
       <c r="C197" t="n">
-        <v>60.006958391955585</v>
+        <v>-0.3458076781930944</v>
       </c>
     </row>
     <row r="198">
@@ -3018,7 +3018,7 @@
         <v>1847.0</v>
       </c>
       <c r="C198" t="n">
-        <v>71.34238546505824</v>
+        <v>-0.29507520606907134</v>
       </c>
     </row>
     <row r="199">
@@ -3029,7 +3029,7 @@
         <v>1854.0</v>
       </c>
       <c r="C199" t="n">
-        <v>92.9477970356701</v>
+        <v>0.22153849313237456</v>
       </c>
     </row>
     <row r="200">
@@ -3040,7 +3040,7 @@
         <v>1855.0</v>
       </c>
       <c r="C200" t="n">
-        <v>84.71522133696223</v>
+        <v>0.03408527172715853</v>
       </c>
     </row>
     <row r="201">
@@ -3051,7 +3051,7 @@
         <v>1857.0</v>
       </c>
       <c r="C201" t="n">
-        <v>86.37148819761005</v>
+        <v>0.09449594360864207</v>
       </c>
     </row>
     <row r="202">
@@ -3062,7 +3062,7 @@
         <v>1864.0</v>
       </c>
       <c r="C202" t="n">
-        <v>72.7851257144681</v>
+        <v>-0.18940845158331054</v>
       </c>
     </row>
     <row r="203">
@@ -3073,7 +3073,7 @@
         <v>1865.0</v>
       </c>
       <c r="C203" t="n">
-        <v>79.7436500139502</v>
+        <v>0.05639854156338889</v>
       </c>
     </row>
     <row r="204">
@@ -3084,7 +3084,7 @@
         <v>1869.0</v>
       </c>
       <c r="C204" t="n">
-        <v>73.95591299310834</v>
+        <v>-0.03781368448211031</v>
       </c>
     </row>
     <row r="205">
@@ -3095,7 +3095,7 @@
         <v>1880.0</v>
       </c>
       <c r="C205" t="n">
-        <v>82.27967326458004</v>
+        <v>0.08392696981643981</v>
       </c>
     </row>
     <row r="206">
@@ -3106,7 +3106,7 @@
         <v>1881.0</v>
       </c>
       <c r="C206" t="n">
-        <v>80.32039170836349</v>
+        <v>0.012788881606695023</v>
       </c>
     </row>
     <row r="207">
@@ -3117,7 +3117,7 @@
         <v>1882.0</v>
       </c>
       <c r="C207" t="n">
-        <v>88.0250255777408</v>
+        <v>0.08118518567174057</v>
       </c>
     </row>
     <row r="208">
@@ -3128,7 +3128,7 @@
         <v>1894.0</v>
       </c>
       <c r="C208" t="n">
-        <v>80.37733372736389</v>
+        <v>-0.039405589899046634</v>
       </c>
     </row>
     <row r="209">
@@ -3139,7 +3139,7 @@
         <v>1896.0</v>
       </c>
       <c r="C209" t="n">
-        <v>75.0135893096835</v>
+        <v>-0.009482690892888359</v>
       </c>
     </row>
     <row r="210">
@@ -3150,7 +3150,7 @@
         <v>1916.0</v>
       </c>
       <c r="C210" t="n">
-        <v>67.52249785352754</v>
+        <v>0.004628143893559436</v>
       </c>
     </row>
     <row r="211">
@@ -3161,7 +3161,7 @@
         <v>1918.0</v>
       </c>
       <c r="C211" t="n">
-        <v>54.41461709665882</v>
+        <v>-0.0578409736327731</v>
       </c>
     </row>
     <row r="212">
@@ -3172,7 +3172,7 @@
         <v>1921.0</v>
       </c>
       <c r="C212" t="n">
-        <v>94.96518426992955</v>
+        <v>0.19528864087998254</v>
       </c>
     </row>
     <row r="213">
@@ -3183,7 +3183,7 @@
         <v>1926.0</v>
       </c>
       <c r="C213" t="n">
-        <v>85.90769893534559</v>
+        <v>0.11740020401038069</v>
       </c>
     </row>
     <row r="214">
@@ -3194,7 +3194,7 @@
         <v>1938.0</v>
       </c>
       <c r="C214" t="n">
-        <v>88.66780035094078</v>
+        <v>0.03526038294617233</v>
       </c>
     </row>
     <row r="215">
@@ -3205,7 +3205,7 @@
         <v>1979.0</v>
       </c>
       <c r="C215" t="n">
-        <v>62.66982535502821</v>
+        <v>-0.3274772252727792</v>
       </c>
     </row>
     <row r="216">
@@ -3216,7 +3216,7 @@
         <v>1982.0</v>
       </c>
       <c r="C216" t="n">
-        <v>71.1487643138361</v>
+        <v>-0.2314635777143541</v>
       </c>
     </row>
     <row r="217">
@@ -3227,7 +3227,7 @@
         <v>1987.0</v>
       </c>
       <c r="C217" t="n">
-        <v>84.70394400356224</v>
+        <v>0.05179817708502884</v>
       </c>
     </row>
     <row r="218">
@@ -3238,7 +3238,7 @@
         <v>1997.0</v>
       </c>
       <c r="C218" t="n">
-        <v>79.80697116067009</v>
+        <v>-0.02975097847153896</v>
       </c>
     </row>
     <row r="219">
@@ -3249,7 +3249,7 @@
         <v>2004.0</v>
       </c>
       <c r="C219" t="n">
-        <v>96.57460472411074</v>
+        <v>0.224656864207776</v>
       </c>
     </row>
     <row r="220">
@@ -3260,7 +3260,7 @@
         <v>2011.0</v>
       </c>
       <c r="C220" t="n">
-        <v>74.3141135627143</v>
+        <v>-0.07720395994700922</v>
       </c>
     </row>
     <row r="221">
@@ -3271,7 +3271,7 @@
         <v>2015.0</v>
       </c>
       <c r="C221" t="n">
-        <v>80.97262261066109</v>
+        <v>0.0038367603200143152</v>
       </c>
     </row>
     <row r="222">
@@ -3282,7 +3282,7 @@
         <v>2022.0</v>
       </c>
       <c r="C222" t="n">
-        <v>74.82794124190482</v>
+        <v>-0.1790462012095193</v>
       </c>
     </row>
     <row r="223">
@@ -3293,7 +3293,7 @@
         <v>2025.0</v>
       </c>
       <c r="C223" t="n">
-        <v>68.8796429492224</v>
+        <v>-0.18895469048902241</v>
       </c>
     </row>
     <row r="224">
@@ -3304,7 +3304,7 @@
         <v>2027.0</v>
       </c>
       <c r="C224" t="n">
-        <v>77.57603839346167</v>
+        <v>-0.1115054538561102</v>
       </c>
     </row>
     <row r="225">
@@ -3315,7 +3315,7 @@
         <v>2031.0</v>
       </c>
       <c r="C225" t="n">
-        <v>68.8428227132336</v>
+        <v>-0.11020394674452962</v>
       </c>
     </row>
     <row r="226">
@@ -3326,7 +3326,7 @@
         <v>2036.0</v>
       </c>
       <c r="C226" t="n">
-        <v>-26.7673977470397</v>
+        <v>-0.010910307581655915</v>
       </c>
     </row>
     <row r="227">
@@ -3337,7 +3337,7 @@
         <v>2066.0</v>
       </c>
       <c r="C227" t="n">
-        <v>79.28883471518705</v>
+        <v>-0.041418441588746496</v>
       </c>
     </row>
     <row r="228">
@@ -3348,7 +3348,7 @@
         <v>2073.0</v>
       </c>
       <c r="C228" t="n">
-        <v>77.28624304809154</v>
+        <v>-0.07591609609172355</v>
       </c>
     </row>
     <row r="229">
@@ -3359,7 +3359,7 @@
         <v>2087.0</v>
       </c>
       <c r="C229" t="n">
-        <v>77.56916721381265</v>
+        <v>-0.14266910157551368</v>
       </c>
     </row>
     <row r="230">
@@ -3370,7 +3370,7 @@
         <v>2092.0</v>
       </c>
       <c r="C230" t="n">
-        <v>84.19450961680556</v>
+        <v>-0.01627577725052616</v>
       </c>
     </row>
     <row r="231">
@@ -3381,7 +3381,7 @@
         <v>2125.0</v>
       </c>
       <c r="C231" t="n">
-        <v>37.85616907701638</v>
+        <v>-0.06054145738947267</v>
       </c>
     </row>
     <row r="232">
@@ -3392,7 +3392,7 @@
         <v>2148.0</v>
       </c>
       <c r="C232" t="n">
-        <v>91.09686455587314</v>
+        <v>0.08543695318595587</v>
       </c>
     </row>
     <row r="233">
@@ -3403,7 +3403,7 @@
         <v>2162.0</v>
       </c>
       <c r="C233" t="n">
-        <v>94.2895886035249</v>
+        <v>0.19322699761916545</v>
       </c>
     </row>
     <row r="234">
@@ -3414,7 +3414,7 @@
         <v>2191.0</v>
       </c>
       <c r="C234" t="n">
-        <v>83.40436130286668</v>
+        <v>0.04534250832157956</v>
       </c>
     </row>
     <row r="235">
@@ -3425,7 +3425,7 @@
         <v>2203.0</v>
       </c>
       <c r="C235" t="n">
-        <v>89.45874039582593</v>
+        <v>0.10150951809184727</v>
       </c>
     </row>
     <row r="236">
@@ -3436,7 +3436,7 @@
         <v>2218.0</v>
       </c>
       <c r="C236" t="n">
-        <v>78.78851278964362</v>
+        <v>-0.09935608846095093</v>
       </c>
     </row>
     <row r="237">
@@ -3447,7 +3447,7 @@
         <v>2221.0</v>
       </c>
       <c r="C237" t="n">
-        <v>75.30985571518706</v>
+        <v>-0.1232197897287074</v>
       </c>
     </row>
     <row r="238">
@@ -3458,7 +3458,7 @@
         <v>2225.0</v>
       </c>
       <c r="C238" t="n">
-        <v>76.43641124224035</v>
+        <v>-0.15925363380637156</v>
       </c>
     </row>
     <row r="239">
@@ -3469,7 +3469,7 @@
         <v>2232.0</v>
       </c>
       <c r="C239" t="n">
-        <v>79.03812225891878</v>
+        <v>0.04656665761202895</v>
       </c>
     </row>
     <row r="240">
@@ -3480,7 +3480,7 @@
         <v>2267.0</v>
       </c>
       <c r="C240" t="n">
-        <v>72.81845022646996</v>
+        <v>0.1412489826888365</v>
       </c>
     </row>
     <row r="241">
@@ -3491,7 +3491,7 @@
         <v>2291.0</v>
       </c>
       <c r="C241" t="n">
-        <v>74.12538837500782</v>
+        <v>-0.18824241782747192</v>
       </c>
     </row>
     <row r="242">
@@ -3502,7 +3502,7 @@
         <v>2299.0</v>
       </c>
       <c r="C242" t="n">
-        <v>87.42461793897843</v>
+        <v>0.10629913444080259</v>
       </c>
     </row>
     <row r="243">
@@ -3513,7 +3513,7 @@
         <v>2317.0</v>
       </c>
       <c r="C243" t="n">
-        <v>89.60690849916986</v>
+        <v>0.21927046114544263</v>
       </c>
     </row>
     <row r="244">
@@ -3524,7 +3524,7 @@
         <v>2318.0</v>
       </c>
       <c r="C244" t="n">
-        <v>83.39458187462273</v>
+        <v>0.06785351108262941</v>
       </c>
     </row>
     <row r="245">
@@ -3535,7 +3535,7 @@
         <v>2353.0</v>
       </c>
       <c r="C245" t="n">
-        <v>80.21534560505489</v>
+        <v>0.03735177613459789</v>
       </c>
     </row>
     <row r="246">
@@ -3546,7 +3546,7 @@
         <v>2403.0</v>
       </c>
       <c r="C246" t="n">
-        <v>60.3853084043286</v>
+        <v>-0.27203917033980546</v>
       </c>
     </row>
     <row r="247">
@@ -3557,7 +3557,7 @@
         <v>2411.0</v>
       </c>
       <c r="C247" t="n">
-        <v>84.93967001841547</v>
+        <v>0.041092581540062983</v>
       </c>
     </row>
     <row r="248">
@@ -3568,7 +3568,7 @@
         <v>2415.0</v>
       </c>
       <c r="C248" t="n">
-        <v>76.70889025366284</v>
+        <v>-0.057084853275465364</v>
       </c>
     </row>
     <row r="249">
@@ -3579,7 +3579,7 @@
         <v>2424.0</v>
       </c>
       <c r="C249" t="n">
-        <v>82.09136255464132</v>
+        <v>0.030051142561728958</v>
       </c>
     </row>
     <row r="250">
@@ -3590,7 +3590,7 @@
         <v>2441.0</v>
       </c>
       <c r="C250" t="n">
-        <v>72.84306872540932</v>
+        <v>-0.08592547762911668</v>
       </c>
     </row>
     <row r="251">
@@ -3601,7 +3601,7 @@
         <v>2464.0</v>
       </c>
       <c r="C251" t="n">
-        <v>83.9515159740392</v>
+        <v>0.014129221391697977</v>
       </c>
     </row>
     <row r="252">
@@ -3612,7 +3612,7 @@
         <v>2465.0</v>
       </c>
       <c r="C252" t="n">
-        <v>80.59965206270613</v>
+        <v>-0.06628402904544449</v>
       </c>
     </row>
     <row r="253">
@@ -3623,7 +3623,7 @@
         <v>2472.0</v>
       </c>
       <c r="C253" t="n">
-        <v>28.302409015612874</v>
+        <v>0.06088619353103815</v>
       </c>
     </row>
     <row r="254">
@@ -3634,7 +3634,7 @@
         <v>2481.0</v>
       </c>
       <c r="C254" t="n">
-        <v>79.93714726992957</v>
+        <v>0.1778704653628665</v>
       </c>
     </row>
     <row r="255">
@@ -3645,7 +3645,7 @@
         <v>2487.0</v>
       </c>
       <c r="C255" t="n">
-        <v>962.7193780770165</v>
+        <v>0.14407703188827684</v>
       </c>
     </row>
     <row r="256">
@@ -3656,7 +3656,7 @@
         <v>2500.0</v>
       </c>
       <c r="C256" t="n">
-        <v>68.4130735081026</v>
+        <v>-0.1748471801869421</v>
       </c>
     </row>
     <row r="257">
@@ -3667,7 +3667,7 @@
         <v>2501.0</v>
       </c>
       <c r="C257" t="n">
-        <v>79.56764924741869</v>
+        <v>-0.045925272192689784</v>
       </c>
     </row>
     <row r="258">
@@ -3678,7 +3678,7 @@
         <v>2520.0</v>
       </c>
       <c r="C258" t="n">
-        <v>83.21620865964545</v>
+        <v>0.02651498135475422</v>
       </c>
     </row>
     <row r="259">
@@ -3689,7 +3689,7 @@
         <v>2521.0</v>
       </c>
       <c r="C259" t="n">
-        <v>87.76998818292293</v>
+        <v>-0.001272709969938987</v>
       </c>
     </row>
     <row r="260">
@@ -3700,7 +3700,7 @@
         <v>2525.0</v>
       </c>
       <c r="C260" t="n">
-        <v>68.50601962657508</v>
+        <v>-0.12076156676140025</v>
       </c>
     </row>
   </sheetData>
